--- a/生产任务单设计画面 160307.xlsx
+++ b/生产任务单设计画面 160307.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9383" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9383" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生产任务单" sheetId="4" r:id="rId1"/>
     <sheet name="机加工生产排程" sheetId="2" r:id="rId2"/>
     <sheet name="零件工序作业" sheetId="6" r:id="rId3"/>
-    <sheet name="零件工序工时流程卡-样张" sheetId="7" r:id="rId4"/>
+    <sheet name="现场终端" sheetId="8" r:id="rId4"/>
+    <sheet name="零件工序工时流程卡-样张" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="263">
   <si>
     <t>项目号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -614,20 +615,6 @@
   </si>
   <si>
     <t>零件工序工时流程卡画面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一、画面功能说明
-1. 创建零件工序工时流程卡功能
-1）单击”添加表头“和“生产明细”进入”基本信息“先维护表头信息，
-如图（一），维护完成，然后单击”零件工序工时流程卡明细“，如图（二），
-增加、修改、删除明细信息。
-2）单击”删除“，可设定生产排程表头与明细信息。
-3）单击”导入“，可导入生产排程表头及明细信息。
-4）单击”导出“，可导出生产排程表头及明细信息。
-2. 查询零件工序工时流程卡功能
-1）输入“项目号/工程号”或者“图号”或者“零件名称”查询相应的工序工时流程卡信息。
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1017,18 +1004,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>时间开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实际工时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1042,6 +1017,163 @@
   </si>
   <si>
     <t>2.已加工数量 SUM(零件工序卡中 的 加工数量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  16:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12H006001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-00612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-00912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-00412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12H005001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12H003001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12H002001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  17:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  12:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  13:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.优先级低：单击图号时，可显示图纸信息（格式为.DWG 或 PDF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  图纸链接地址可在BOM维护程序中增加一个字段叫 图纸路径 dwg_path 字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场终端画面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一、画面功能说明
+1. 创建零件工序工时流程卡功能
+1）单击”添加表头“和“生产明细”进入”基本信息“先维护表头信息，
+如图（一），维护完成，然后单击”零件工序工时流程卡明细“，如图（二），
+增加、修改、删除明细信息。
+2）单击”删除“，可设定生产排程表头与明细信息。
+3）单击”导入“，可导入生产排程表头及明细信息。
+4）单击”导出“，可导出生产排程表头及明细信息。
+2. 查询零件工序工时流程卡功能
+1）输入“项目号/工程号”或者“图号”或者“零件名称”查询相应的工序工时流程卡信息。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、画面功能说明</t>
+  </si>
+  <si>
+    <t>2. 界面显示和功能如下；机台号、操作者 通过扫描工牌获取，界时可在机器上调试，现在手工输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入机台号按 查询 按钮，查询当前机台对应的所有任务，按图号排序，已完成的任务时间倒排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前操作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱华林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.单击开始按钮，确认任务开始，并显示开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.单击结束按钮，确认任务结束，并显示结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 主要是替代目前的零件工序工时流程卡，见附件样张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创建一个独立的页面 MES_Process.aspx 用于显示在车间电脑上，界面要求直观简洁，字体大些，便于使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,8 +1377,34 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,8 +1476,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1880,13 +2044,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2286,6 +2463,48 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2325,61 +2544,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,67 +2628,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,59 +2682,83 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3289,16 +3538,151 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561993</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6234112" y="981075"/>
+          <a:ext cx="2519381" cy="4205318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666772</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="4124325"/>
+          <a:ext cx="2971822" cy="1847864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>804863</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100263" y="3757612"/>
+          <a:ext cx="295275" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>151993</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3315,8 +3699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1764983"/>
-          <a:ext cx="5029200" cy="4269650"/>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="5334000" cy="3995330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3583,7 +3967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3618,60 +4002,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="136"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="150"/>
     </row>
     <row r="2" spans="2:25" ht="226.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="139"/>
+      <c r="B2" s="151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="153"/>
     </row>
     <row r="3" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
@@ -3729,11 +4113,11 @@
     </row>
     <row r="5" spans="2:25" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -3776,10 +4160,10 @@
       <c r="S6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="155" t="s">
+      <c r="T6" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="156"/>
+      <c r="U6" s="140"/>
       <c r="V6" s="31" t="s">
         <v>4</v>
       </c>
@@ -3795,7 +4179,7 @@
     </row>
     <row r="7" spans="2:25" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="69"/>
@@ -3808,15 +4192,15 @@
       <c r="K7" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="143"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="157"/>
       <c r="O7" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P7" s="68"/>
       <c r="Q7" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R7" s="73"/>
       <c r="S7" s="69"/>
@@ -3860,7 +4244,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>0</v>
@@ -3869,10 +4253,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>25</v>
@@ -3890,26 +4274,26 @@
         <v>22</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N9" s="34" t="s">
         <v>85</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P9" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="159"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="143"/>
     </row>
     <row r="10" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
@@ -3926,16 +4310,16 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="148"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="146"/>
     </row>
     <row r="11" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
@@ -3952,16 +4336,16 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="148"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="146"/>
     </row>
     <row r="12" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -3978,16 +4362,16 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="148"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="146"/>
     </row>
     <row r="13" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
@@ -4004,16 +4388,16 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="148"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="146"/>
     </row>
     <row r="14" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -4030,16 +4414,16 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="148"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="146"/>
     </row>
     <row r="15" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
@@ -4056,25 +4440,25 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="148"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="146"/>
     </row>
     <row r="16" spans="2:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="145"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -4128,14 +4512,14 @@
         <v>18</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="13"/>
       <c r="F18" s="64" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
@@ -4143,7 +4527,7 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -4154,7 +4538,7 @@
       </c>
       <c r="T18" s="13"/>
       <c r="U18" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V18" s="106"/>
       <c r="W18" s="13"/>
@@ -4192,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -4200,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
@@ -4208,7 +4592,7 @@
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -4219,7 +4603,7 @@
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
@@ -4256,14 +4640,14 @@
         <v>32</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="13"/>
       <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -4273,7 +4657,7 @@
       </c>
       <c r="M22" s="13"/>
       <c r="N22" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -4284,7 +4668,7 @@
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
@@ -4322,14 +4706,14 @@
         <v>33</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -4344,11 +4728,11 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -4374,7 +4758,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -4471,11 +4855,11 @@
     </row>
     <row r="31" spans="2:25" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4518,10 +4902,10 @@
       <c r="S32" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="T32" s="155" t="s">
+      <c r="T32" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="156"/>
+      <c r="U32" s="140"/>
       <c r="V32" s="31" t="s">
         <v>4</v>
       </c>
@@ -4537,7 +4921,7 @@
     </row>
     <row r="33" spans="2:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="69"/>
@@ -4550,15 +4934,15 @@
       <c r="K33" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="143"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="157"/>
       <c r="O33" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P33" s="68"/>
       <c r="Q33" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R33" s="73"/>
       <c r="S33" s="69"/>
@@ -4602,7 +4986,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>0</v>
@@ -4611,10 +4995,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>25</v>
@@ -4632,26 +5016,26 @@
         <v>22</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N35" s="34" t="s">
         <v>85</v>
       </c>
       <c r="O35" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P35" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="P35" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="159"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="143"/>
     </row>
     <row r="36" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
@@ -4668,16 +5052,16 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="148"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="146"/>
     </row>
     <row r="37" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
@@ -4694,16 +5078,16 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="148"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="146"/>
     </row>
     <row r="38" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
@@ -4720,16 +5104,16 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="148"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="146"/>
     </row>
     <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
@@ -4746,16 +5130,16 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="148"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="145"/>
+      <c r="T39" s="145"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="146"/>
     </row>
     <row r="40" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
@@ -4772,16 +5156,16 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147"/>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="147"/>
-      <c r="X40" s="147"/>
-      <c r="Y40" s="148"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="146"/>
     </row>
     <row r="41" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
@@ -4798,25 +5182,25 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="147"/>
-      <c r="X41" s="147"/>
-      <c r="Y41" s="148"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="145"/>
+      <c r="Y41" s="146"/>
     </row>
     <row r="42" spans="2:25" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="145"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -4874,7 +5258,7 @@
         <v>47</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N43" s="45" t="s">
         <v>46</v>
@@ -4934,20 +5318,20 @@
       <c r="K44" s="16"/>
       <c r="L44" s="76"/>
       <c r="M44" s="76"/>
-      <c r="N44" s="149" t="s">
+      <c r="N44" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="150"/>
-      <c r="U44" s="150"/>
-      <c r="V44" s="150"/>
-      <c r="W44" s="150"/>
-      <c r="X44" s="150"/>
-      <c r="Y44" s="151"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="135"/>
     </row>
     <row r="45" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B45" s="39">
@@ -4970,18 +5354,18 @@
       <c r="K45" s="16"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="153"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="154"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="138"/>
     </row>
     <row r="46" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B46" s="39">
@@ -5009,15 +5393,15 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
-      <c r="S46" s="149" t="s">
+      <c r="S46" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="T46" s="150"/>
-      <c r="U46" s="150"/>
-      <c r="V46" s="150"/>
-      <c r="W46" s="150"/>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="151"/>
+      <c r="T46" s="134"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="134"/>
+      <c r="W46" s="134"/>
+      <c r="X46" s="134"/>
+      <c r="Y46" s="135"/>
     </row>
     <row r="47" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B47" s="39">
@@ -5045,13 +5429,13 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
-      <c r="S47" s="152"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="153"/>
-      <c r="V47" s="153"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="154"/>
+      <c r="S47" s="136"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="138"/>
     </row>
     <row r="48" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B48" s="39">
@@ -5079,15 +5463,15 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
-      <c r="S48" s="149" t="s">
+      <c r="S48" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="T48" s="150"/>
-      <c r="U48" s="150"/>
-      <c r="V48" s="150"/>
-      <c r="W48" s="150"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="151"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="134"/>
+      <c r="W48" s="134"/>
+      <c r="X48" s="134"/>
+      <c r="Y48" s="135"/>
     </row>
     <row r="49" spans="2:25" ht="15" x14ac:dyDescent="0.3">
       <c r="B49" s="39">
@@ -5115,13 +5499,13 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
-      <c r="S49" s="152"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="153"/>
-      <c r="W49" s="153"/>
-      <c r="X49" s="153"/>
-      <c r="Y49" s="154"/>
+      <c r="S49" s="136"/>
+      <c r="T49" s="137"/>
+      <c r="U49" s="137"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="137"/>
+      <c r="X49" s="137"/>
+      <c r="Y49" s="138"/>
     </row>
     <row r="50" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="40"/>
@@ -5229,43 +5613,43 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:25" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="2:25" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="B64" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="133"/>
+      <c r="B64" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
       <c r="M64" s="127"/>
     </row>
     <row r="65" spans="2:13" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B65" s="126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" s="128"/>
       <c r="D65" s="128"/>
@@ -5281,7 +5665,7 @@
     </row>
     <row r="66" spans="2:13" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B66" s="126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="128"/>
       <c r="D66" s="128"/>
@@ -5296,7 +5680,7 @@
     </row>
     <row r="67" spans="2:13" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B67" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" s="131"/>
       <c r="D67" s="131"/>
@@ -5311,7 +5695,7 @@
     </row>
     <row r="68" spans="2:13" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B68" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="131"/>
@@ -5326,18 +5710,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N44:Y45"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="S46:Y47"/>
-    <mergeCell ref="S48:Y49"/>
-    <mergeCell ref="P35:Y35"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P37:Y37"/>
-    <mergeCell ref="P38:Y38"/>
-    <mergeCell ref="P39:Y39"/>
-    <mergeCell ref="P40:Y40"/>
-    <mergeCell ref="P41:Y41"/>
     <mergeCell ref="B64:L64"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B2:Y2"/>
@@ -5354,6 +5726,18 @@
     <mergeCell ref="P15:Y15"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="P36:Y36"/>
+    <mergeCell ref="N44:Y45"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="S46:Y47"/>
+    <mergeCell ref="S48:Y49"/>
+    <mergeCell ref="P35:Y35"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P37:Y37"/>
+    <mergeCell ref="P38:Y38"/>
+    <mergeCell ref="P39:Y39"/>
+    <mergeCell ref="P40:Y40"/>
+    <mergeCell ref="P41:Y41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5394,63 +5778,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="136"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="150"/>
     </row>
     <row r="2" spans="2:23" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="139"/>
+      <c r="B2" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="153"/>
     </row>
     <row r="3" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -5498,12 +5882,12 @@
     <row r="5" spans="2:23" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -5537,10 +5921,10 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="157" t="s">
+      <c r="Q6" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="172"/>
+      <c r="R6" s="163"/>
       <c r="S6" s="34" t="s">
         <v>77</v>
       </c>
@@ -5575,19 +5959,19 @@
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="164"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="168"/>
       <c r="R7" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="S7" s="162"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="176"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="185"/>
     </row>
     <row r="8" spans="2:23" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
@@ -5614,10 +5998,10 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="2:23" ht="30" x14ac:dyDescent="0.3">
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="34" t="s">
         <v>94</v>
       </c>
@@ -5630,24 +6014,24 @@
       <c r="G9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="166"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="187"/>
     </row>
     <row r="10" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
@@ -5656,22 +6040,22 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="148"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="146"/>
     </row>
     <row r="11" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
@@ -5680,22 +6064,22 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="148"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="146"/>
     </row>
     <row r="12" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -5704,22 +6088,22 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="148"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="146"/>
     </row>
     <row r="13" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
@@ -5728,22 +6112,22 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="148"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="146"/>
     </row>
     <row r="14" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -5752,22 +6136,22 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="148"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="146"/>
     </row>
     <row r="15" spans="2:23" ht="16.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
@@ -5776,28 +6160,28 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="148"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="146"/>
     </row>
     <row r="16" spans="2:23" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="187"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="160" t="s">
         <v>101</v>
       </c>
@@ -5852,7 +6236,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
@@ -5862,7 +6246,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -5871,7 +6255,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -5916,7 +6300,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
@@ -5924,7 +6308,7 @@
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -5974,22 +6358,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="173" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="174"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="175"/>
+      <c r="D22" s="182" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="184"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -6070,11 +6454,11 @@
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -6122,12 +6506,12 @@
     <row r="28" spans="2:23" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="140" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
+      <c r="D28" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -6161,10 +6545,10 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="157" t="s">
+      <c r="Q29" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="R29" s="172"/>
+      <c r="R29" s="163"/>
       <c r="S29" s="34" t="s">
         <v>77</v>
       </c>
@@ -6199,19 +6583,19 @@
       </c>
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="164"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="168"/>
       <c r="R30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="S30" s="162"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="176"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="185"/>
     </row>
     <row r="31" spans="2:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -6238,10 +6622,10 @@
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="2:23" ht="30" x14ac:dyDescent="0.3">
-      <c r="B32" s="185" t="s">
+      <c r="B32" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="172"/>
+      <c r="C32" s="163"/>
       <c r="D32" s="34" t="s">
         <v>94</v>
       </c>
@@ -6254,24 +6638,24 @@
       <c r="G32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="155" t="s">
+      <c r="H32" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
-      <c r="U32" s="165"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="166"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="187"/>
     </row>
     <row r="33" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
@@ -6280,22 +6664,22 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="148"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="146"/>
     </row>
     <row r="34" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
@@ -6304,22 +6688,22 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="148"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="146"/>
     </row>
     <row r="35" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
@@ -6328,22 +6712,22 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="148"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="146"/>
     </row>
     <row r="36" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
@@ -6352,22 +6736,22 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="148"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="146"/>
     </row>
     <row r="37" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
@@ -6376,22 +6760,22 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="148"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="146"/>
     </row>
     <row r="38" spans="2:23" ht="16.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21"/>
@@ -6400,22 +6784,22 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="148"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="146"/>
     </row>
     <row r="39" spans="2:23" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="160" t="s">
@@ -6450,7 +6834,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>1</v>
@@ -6510,7 +6894,7 @@
         <v>45</v>
       </c>
       <c r="W40" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:23" ht="15" x14ac:dyDescent="0.3">
@@ -6801,7 +7185,7 @@
     </row>
     <row r="51" spans="2:28" s="109" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B51" s="108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
@@ -6813,7 +7197,7 @@
     </row>
     <row r="52" spans="2:28" s="109" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B52" s="108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="108"/>
       <c r="D52" s="108"/>
@@ -6822,7 +7206,7 @@
     </row>
     <row r="53" spans="2:28" s="109" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="108"/>
       <c r="D53" s="108"/>
@@ -6831,7 +7215,7 @@
     </row>
     <row r="54" spans="2:28" s="109" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N54" s="109" t="s">
         <v>85</v>
@@ -6858,7 +7242,7 @@
     </row>
     <row r="58" spans="2:28" s="109" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B58" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" s="110"/>
       <c r="N58" s="109" t="s">
@@ -6866,11 +7250,11 @@
       </c>
     </row>
     <row r="59" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="167" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
+      <c r="B59" s="177" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="178"/>
+      <c r="D59" s="178"/>
       <c r="E59" s="65"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -6928,12 +7312,12 @@
     <row r="61" spans="2:28" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="169" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="171"/>
+      <c r="D61" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="181"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -6979,14 +7363,14 @@
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
       <c r="W62" s="63"/>
-      <c r="X62" s="157"/>
-      <c r="Y62" s="172"/>
-      <c r="Z62" s="157" t="s">
+      <c r="X62" s="141"/>
+      <c r="Y62" s="163"/>
+      <c r="Z62" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA62" s="163"/>
+      <c r="AB62" s="99" t="s">
         <v>166</v>
-      </c>
-      <c r="AA62" s="172"/>
-      <c r="AB62" s="99" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:28" ht="36.4" x14ac:dyDescent="0.3">
@@ -7001,29 +7385,29 @@
       <c r="H63" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I63" s="162"/>
-      <c r="J63" s="164"/>
+      <c r="I63" s="167"/>
+      <c r="J63" s="168"/>
       <c r="K63" s="69" t="s">
         <v>108</v>
       </c>
       <c r="L63" s="69"/>
       <c r="M63" s="68"/>
-      <c r="N63" s="163" t="s">
+      <c r="N63" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="O63" s="174"/>
+      <c r="P63" s="174"/>
+      <c r="Q63" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="R63" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="O63" s="163"/>
-      <c r="P63" s="163"/>
-      <c r="Q63" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="R63" s="111" t="s">
-        <v>176</v>
-      </c>
       <c r="S63" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="T63" s="183"/>
-      <c r="U63" s="184"/>
+        <v>152</v>
+      </c>
+      <c r="T63" s="175"/>
+      <c r="U63" s="176"/>
       <c r="V63" s="82" t="s">
         <v>76</v>
       </c>
@@ -7035,64 +7419,64 @@
       <c r="AB63" s="105"/>
     </row>
     <row r="64" spans="2:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="B64" s="178"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="179"/>
-      <c r="E64" s="179"/>
-      <c r="F64" s="179"/>
-      <c r="G64" s="179"/>
-      <c r="H64" s="179"/>
-      <c r="I64" s="179"/>
-      <c r="J64" s="179"/>
-      <c r="K64" s="179"/>
-      <c r="L64" s="179"/>
-      <c r="M64" s="179"/>
-      <c r="N64" s="179"/>
-      <c r="O64" s="179"/>
-      <c r="P64" s="179"/>
-      <c r="Q64" s="179"/>
-      <c r="R64" s="179"/>
-      <c r="S64" s="179"/>
-      <c r="T64" s="179"/>
-      <c r="U64" s="179"/>
-      <c r="V64" s="179"/>
-      <c r="W64" s="179"/>
-      <c r="X64" s="179"/>
-      <c r="Y64" s="179"/>
-      <c r="Z64" s="179"/>
-      <c r="AA64" s="179"/>
-      <c r="AB64" s="180"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="170"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="170"/>
+      <c r="O64" s="170"/>
+      <c r="P64" s="170"/>
+      <c r="Q64" s="170"/>
+      <c r="R64" s="170"/>
+      <c r="S64" s="170"/>
+      <c r="T64" s="170"/>
+      <c r="U64" s="170"/>
+      <c r="V64" s="170"/>
+      <c r="W64" s="170"/>
+      <c r="X64" s="170"/>
+      <c r="Y64" s="170"/>
+      <c r="Z64" s="170"/>
+      <c r="AA64" s="170"/>
+      <c r="AB64" s="171"/>
     </row>
     <row r="65" spans="2:28" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="177"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="166"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="181"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="181"/>
-      <c r="M65" s="181"/>
-      <c r="N65" s="181"/>
-      <c r="O65" s="181"/>
-      <c r="P65" s="181"/>
-      <c r="Q65" s="181"/>
-      <c r="R65" s="181"/>
-      <c r="S65" s="181"/>
-      <c r="T65" s="181"/>
-      <c r="U65" s="181"/>
-      <c r="V65" s="181"/>
-      <c r="W65" s="181"/>
-      <c r="X65" s="181"/>
-      <c r="Y65" s="181"/>
-      <c r="Z65" s="181"/>
-      <c r="AA65" s="181"/>
-      <c r="AB65" s="182"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="172"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="172"/>
+      <c r="M65" s="172"/>
+      <c r="N65" s="172"/>
+      <c r="O65" s="172"/>
+      <c r="P65" s="172"/>
+      <c r="Q65" s="172"/>
+      <c r="R65" s="172"/>
+      <c r="S65" s="172"/>
+      <c r="T65" s="172"/>
+      <c r="U65" s="172"/>
+      <c r="V65" s="172"/>
+      <c r="W65" s="172"/>
+      <c r="X65" s="172"/>
+      <c r="Y65" s="172"/>
+      <c r="Z65" s="172"/>
+      <c r="AA65" s="172"/>
+      <c r="AB65" s="173"/>
     </row>
     <row r="66" spans="2:28" ht="45" x14ac:dyDescent="0.3">
       <c r="B66" s="44" t="s">
@@ -7136,7 +7520,7 @@
         <v>27</v>
       </c>
       <c r="P66" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q66" s="45" t="s">
         <v>46</v>
@@ -7498,18 +7882,21 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="B64:AB64"/>
-    <mergeCell ref="G65:AB65"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="H32:W32"/>
+    <mergeCell ref="H33:W33"/>
+    <mergeCell ref="H34:W34"/>
+    <mergeCell ref="H14:W14"/>
+    <mergeCell ref="H15:W15"/>
+    <mergeCell ref="H9:W9"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="H11:W11"/>
+    <mergeCell ref="H12:W12"/>
+    <mergeCell ref="H13:W13"/>
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B3:D3"/>
@@ -7526,21 +7913,18 @@
     <mergeCell ref="S30:W30"/>
     <mergeCell ref="H37:W37"/>
     <mergeCell ref="S7:W7"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="H32:W32"/>
-    <mergeCell ref="H33:W33"/>
-    <mergeCell ref="H34:W34"/>
-    <mergeCell ref="H14:W14"/>
-    <mergeCell ref="H15:W15"/>
-    <mergeCell ref="H9:W9"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H11:W11"/>
-    <mergeCell ref="H12:W12"/>
-    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="B64:AB64"/>
+    <mergeCell ref="G65:AB65"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="X62:Y62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7553,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7576,21 +7960,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="22.9" x14ac:dyDescent="0.3">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
       <c r="O1" s="97"/>
       <c r="P1" s="97"/>
       <c r="Q1" s="97"/>
@@ -7600,21 +7984,21 @@
       <c r="U1" s="97"/>
     </row>
     <row r="2" spans="2:31" ht="174.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="201" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
+      <c r="B2" s="193" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
       <c r="O2" s="64"/>
       <c r="P2" s="64"/>
       <c r="Q2" s="64"/>
@@ -7624,10 +8008,10 @@
       <c r="U2" s="64"/>
     </row>
     <row r="3" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
       <c r="F3" s="94"/>
@@ -7640,29 +8024,29 @@
       <c r="M3" s="95"/>
       <c r="N3" s="96"/>
       <c r="V3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="AE3" s="130" t="s">
         <v>70</v>
@@ -7683,31 +8067,31 @@
       <c r="M4" s="3"/>
       <c r="N4" s="11"/>
       <c r="U4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W4" s="34" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Z4" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="AA4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="34" t="s">
         <v>201</v>
-      </c>
-      <c r="AA4" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB4" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC4" s="34" t="s">
-        <v>202</v>
       </c>
       <c r="AD4" s="34" t="s">
         <v>64</v>
@@ -7719,11 +8103,11 @@
     <row r="5" spans="2:31" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -7756,10 +8140,10 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>4</v>
@@ -7768,10 +8152,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -7817,7 +8201,7 @@
     </row>
     <row r="8" spans="2:31" ht="16.25" x14ac:dyDescent="0.25">
       <c r="B8" s="72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
@@ -7828,13 +8212,13 @@
       <c r="G8" s="68"/>
       <c r="H8" s="69"/>
       <c r="I8" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="176"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="185"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -7851,7 +8235,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="90" t="s">
         <v>58</v>
@@ -7871,13 +8255,13 @@
       <c r="I9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="204" t="s">
+      <c r="J9" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="205"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="197"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -8023,10 +8407,10 @@
       <c r="M15" s="100"/>
       <c r="N15" s="101"/>
       <c r="Z15" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB15" s="107" t="s">
         <v>206</v>
-      </c>
-      <c r="AB15" s="107" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="15" x14ac:dyDescent="0.3">
@@ -8046,18 +8430,18 @@
       <c r="M16" s="100"/>
       <c r="N16" s="101"/>
       <c r="W16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
       <c r="H17" s="86"/>
@@ -8068,7 +8452,7 @@
       <c r="M17" s="86"/>
       <c r="N17" s="93"/>
       <c r="W17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="15" x14ac:dyDescent="0.3">
@@ -8086,37 +8470,37 @@
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="116"/>
       <c r="F19" s="5"/>
       <c r="G19" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="5"/>
       <c r="L19" s="114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="15" x14ac:dyDescent="0.3">
@@ -8136,34 +8520,34 @@
       <c r="M20" s="5"/>
       <c r="N20" s="119"/>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="13"/>
       <c r="F21" s="5"/>
       <c r="G21" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="15.6" x14ac:dyDescent="0.25">
@@ -8194,7 +8578,7 @@
       <c r="I23" s="62"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -8216,10 +8600,10 @@
       <c r="N24" s="60"/>
     </row>
     <row r="26" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="200"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
@@ -8241,11 +8625,11 @@
     <row r="28" spans="2:23" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="140" t="s">
+      <c r="D28" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -8264,10 +8648,10 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>4</v>
@@ -8276,7 +8660,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N29" s="32" t="s">
         <v>6</v>
@@ -8308,7 +8692,7 @@
         <v>121</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H31" s="69"/>
       <c r="I31" s="73" t="s">
@@ -8316,16 +8700,16 @@
       </c>
       <c r="J31" s="69"/>
       <c r="K31" s="71"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="176"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:23" ht="30" x14ac:dyDescent="0.3">
       <c r="B32" s="87" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="90" t="s">
         <v>58</v>
@@ -8345,13 +8729,13 @@
       <c r="I32" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="204" t="s">
+      <c r="J32" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="205"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="197"/>
     </row>
     <row r="33" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B33" s="87">
@@ -8476,11 +8860,11 @@
       <c r="B40" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="196" t="s">
+      <c r="C40" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="197"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
       <c r="F40" s="86"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -8504,10 +8888,10 @@
       <c r="E41" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="206" t="s">
+      <c r="F41" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="207"/>
+      <c r="G41" s="201"/>
       <c r="H41" s="45" t="s">
         <v>129</v>
       </c>
@@ -8531,15 +8915,15 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="192">
+      <c r="B42" s="190">
         <v>1</v>
       </c>
-      <c r="C42" s="188" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="190"/>
-      <c r="E42" s="188" t="s">
-        <v>179</v>
+      <c r="C42" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="188"/>
+      <c r="E42" s="204" t="s">
+        <v>178</v>
       </c>
       <c r="F42" s="98" t="s">
         <v>118</v>
@@ -8547,175 +8931,194 @@
       <c r="G42" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="198" t="s">
+      <c r="H42" s="206" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="204" t="s">
         <v>178</v>
       </c>
-      <c r="I42" s="188" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="190"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="188"/>
     </row>
     <row r="43" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="193"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="189"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="205"/>
       <c r="F43" s="98" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="191"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="205"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="189"/>
+      <c r="N43" s="189"/>
     </row>
     <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B44" s="192">
+      <c r="B44" s="190">
         <v>2</v>
       </c>
-      <c r="C44" s="188"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="188"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="204"/>
       <c r="F44" s="98" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="194"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
-      <c r="N44" s="190"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
     </row>
     <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B45" s="193"/>
-      <c r="C45" s="189"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="189"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="205"/>
       <c r="F45" s="98" t="s">
         <v>120</v>
       </c>
       <c r="G45" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="195"/>
-      <c r="I45" s="189"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="191"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="189"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="189"/>
+      <c r="M45" s="189"/>
+      <c r="N45" s="189"/>
     </row>
     <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B46" s="192">
+      <c r="B46" s="190">
         <v>3</v>
       </c>
-      <c r="C46" s="188"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="188"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="204"/>
       <c r="F46" s="98" t="s">
         <v>118</v>
       </c>
       <c r="G46" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="194"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="190"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
     </row>
     <row r="47" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B47" s="193"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="189"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="205"/>
       <c r="F47" s="98" t="s">
         <v>120</v>
       </c>
       <c r="G47" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="195"/>
-      <c r="I47" s="189"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="189"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="189"/>
     </row>
     <row r="48" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B48" s="192">
+      <c r="B48" s="190">
         <v>4</v>
       </c>
-      <c r="C48" s="188"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="188"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="204"/>
       <c r="F48" s="98" t="s">
         <v>118</v>
       </c>
       <c r="G48" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="194"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="190"/>
-      <c r="K48" s="190"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="190"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="188"/>
     </row>
     <row r="49" spans="2:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="B49" s="193"/>
-      <c r="C49" s="189"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="189"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="205"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="205"/>
       <c r="F49" s="98" t="s">
         <v>120</v>
       </c>
       <c r="G49" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="195"/>
-      <c r="I49" s="189"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="191"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
-      <c r="N49" s="191"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="205"/>
+      <c r="J49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="189"/>
+      <c r="M49" s="189"/>
+      <c r="N49" s="189"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B3:C3"/>
@@ -8732,36 +9135,17 @@
     <mergeCell ref="J32:N32"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8772,109 +9156,376 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L20:R29"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
+    <col min="6" max="7" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L20" t="s">
+    <row r="1" spans="1:15" ht="22.9" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="214" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="215"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="216" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="M20" s="183"/>
-      <c r="N20" s="184"/>
-      <c r="O20" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="22" spans="12:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="L22" s="34" t="s">
+      <c r="C9" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="N22" s="34" t="s">
+      <c r="E9" s="208" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="208" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="O22" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q22" s="34" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="218" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="212" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="210" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="211" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="12:18" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="132"/>
-    </row>
-    <row r="26" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="12:18" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="F10" s="210" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="218" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="210" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="211" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="218" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="210" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="210" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="210" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="218" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="210" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="209" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="218" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="213" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="210" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="218" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="213" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="210" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="209" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="220" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="221" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="222" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="223" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="223" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="224" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="214" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="231" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="229"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="230"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="225" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="225" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="225" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="225" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="225" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="R25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="25" spans="18:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="R25" s="132"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
